--- a/biology/Histoire de la zoologie et de la botanique/Gerhard_Storch/Gerhard_Storch.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Gerhard_Storch/Gerhard_Storch.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,15 +490,17 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Gerhard Storch, né le 21 mai 1939 à Francfort-sur-le-Main et mort le 11 août 2017[1], est un paléontologue et zoologue allemand, principalement connu pour la description d'espèces mammifères retrouvées sur le site fossilifère de Messel :
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Gerhard Storch, né le 21 mai 1939 à Francfort-sur-le-Main et mort le 11 août 2017, est un paléontologue et zoologue allemand, principalement connu pour la description d'espèces mammifères retrouvées sur le site fossilifère de Messel :
 Eurotamandua (E. waldi ; E. krebsi) (Myrmecophagidae)
-Eomanis (E. joresi) (Pangolin)[2]
+Eomanis (E. joresi) (Pangolin)
 Leptictidium nasutum (es) (avec Adrian Lister (es))
 Leptictidium tobieni (es) (avec Wighart von Koenigswald (es))
-Palaeochiropteryx (P. tupaiodon) (avec Jörg Habersetzer (es))[3].
-Il était directeur du département de zoologie terrestre à l'Institut de recherche Senckenberg de Francfort[4].
+Palaeochiropteryx (P. tupaiodon) (avec Jörg Habersetzer (es)).
+Il était directeur du département de zoologie terrestre à l'Institut de recherche Senckenberg de Francfort.
 </t>
         </is>
       </c>
@@ -517,10 +529,12 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Gerhard Storch étudie la biologie à Darmstadt, Vienne et Francfort, et obtient son doctorat grâce à une thèse sur les chauve-souris. De 1967 à 1969, il est boursier à la Deutsche Forschungsgemeinschaft (DFG), et est depuis 1969 directeur de la section « Mammifères fossiles » de l'Institut de recherche Senckenberg de Francfort. Il est également directeur du département de zoologie terrestre[4] de 1997 à 2004, date à laquelle il prend sa retraite.
-Storch a également participé à d'autres fouilles archéologiques en Allemagne (à Eppelsheim[5],[6] et Dorn-Dürkheim entre autres), en Chine et en Mongolie[7],[8], au Maroc, en mer Égée, à Malte ou encore en Europe centrale[9].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Gerhard Storch étudie la biologie à Darmstadt, Vienne et Francfort, et obtient son doctorat grâce à une thèse sur les chauve-souris. De 1967 à 1969, il est boursier à la Deutsche Forschungsgemeinschaft (DFG), et est depuis 1969 directeur de la section « Mammifères fossiles » de l'Institut de recherche Senckenberg de Francfort. Il est également directeur du département de zoologie terrestre de 1997 à 2004, date à laquelle il prend sa retraite.
+Storch a également participé à d'autres fouilles archéologiques en Allemagne (à Eppelsheim, et Dorn-Dürkheim entre autres), en Chine et en Mongolie au Maroc, en mer Égée, à Malte ou encore en Europe centrale.
 </t>
         </is>
       </c>
@@ -549,7 +563,9 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>(de) Gerhard Storch, Oldřich Fejfar et al., Das Nagetier von Valeč-Waltsch in Böhmen : ein historischer fossiler Säugetierfund (Rodentia : Myoxidae), Munich, Pfeil, coll. « Münchener geowissenschaftliche Abhandlungen » (no 26), 1994, 191 p. (ISBN 978-3-923871-81-0)
 (de) Gerhard Storch et Wighart von Koenigswald, Messel : ein Pompeji der Paläontologie, Sigmaringen, Thorbecke, coll. « Thorbecke Species » (no 2), 1998, 152 p. (ISBN 978-3-7995-9083-9)
